--- a/disabled products/Gen 2.5 12-Door Beer.xlsx
+++ b/disabled products/Gen 2.5 12-Door Beer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrypkahauer/Developer/Python/Jenn/prod_docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenn/Documents/QuikTrip/2024 Reset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF2D03E-5659-CF40-A487-57CB2A5394B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374EB9C2-F29B-174A-AAF6-0D7F1B47DA3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12920" yWindow="500" windowWidth="20760" windowHeight="20740" xr2:uid="{E26AF1C9-6286-E04F-A149-A99C470D1576}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="12760" windowHeight="14400" xr2:uid="{E26AF1C9-6286-E04F-A149-A99C470D1576}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,95 +25,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="596">
-  <si>
-    <t>898999012483</t>
-  </si>
-  <si>
-    <t>898999012520</t>
-  </si>
-  <si>
-    <t>898999012506</t>
-  </si>
-  <si>
-    <t>898999012544</t>
-  </si>
-  <si>
-    <t>850000429277</t>
-  </si>
-  <si>
-    <t>850000429123</t>
-  </si>
-  <si>
-    <t>850000429130</t>
-  </si>
-  <si>
-    <t>850000429185</t>
-  </si>
-  <si>
-    <t>852789008094</t>
-  </si>
-  <si>
-    <t>853158004006</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="608">
   <si>
     <t>068274463334</t>
   </si>
   <si>
-    <t>049000031652</t>
-  </si>
-  <si>
     <t>071142004003</t>
   </si>
   <si>
-    <t>Power Lift Orange Mango</t>
-  </si>
-  <si>
-    <t>Power Lift Berry Strawberry</t>
-  </si>
-  <si>
-    <t>Power Lift Blueberry Pom</t>
-  </si>
-  <si>
-    <t>Power Lift Lemon Lime</t>
-  </si>
-  <si>
-    <t>NOCCO Blood Orange</t>
-  </si>
-  <si>
-    <t>NOCCO Caribbean</t>
-  </si>
-  <si>
-    <t>NOCCO Tropical</t>
-  </si>
-  <si>
-    <t>NOCCO Miami</t>
-  </si>
-  <si>
-    <t>Zen Water 33.8oz</t>
-  </si>
-  <si>
-    <t>Alkaline 88 Gallon</t>
-  </si>
-  <si>
-    <t>Dasani .5L 24-pk</t>
-  </si>
-  <si>
-    <t>Arrowhead .5L 24-pk</t>
-  </si>
-  <si>
     <t>080660957661</t>
   </si>
   <si>
-    <t>080660957869</t>
-  </si>
-  <si>
     <t>089826901180</t>
   </si>
   <si>
-    <t>089826901838</t>
-  </si>
-  <si>
     <t>089826900237</t>
   </si>
   <si>
@@ -123,9 +48,6 @@
     <t>033544001295</t>
   </si>
   <si>
-    <t>033544001776</t>
-  </si>
-  <si>
     <t>080660957197</t>
   </si>
   <si>
@@ -147,15 +69,12 @@
     <t>033544000212</t>
   </si>
   <si>
-    <t>Modelo Negra 12oz Btl 6pk</t>
+    <t>Modelo Especial 12oz Btl 6pk</t>
   </si>
   <si>
     <t>Tecate Light 12oz Can 18pk</t>
   </si>
   <si>
-    <t>Tecate 12oz Can 18pk</t>
-  </si>
-  <si>
     <t>Tecate Light 12oz Can 12pk</t>
   </si>
   <si>
@@ -165,9 +84,6 @@
     <t>Modelo Chelada Lemon y Sal 12oz Can 12pk</t>
   </si>
   <si>
-    <t>Modelo Chelada Variety 12oz Can 12pk</t>
-  </si>
-  <si>
     <t>Modelo Especial 12oz Can 12pk</t>
   </si>
   <si>
@@ -195,48 +111,30 @@
     <t>080660956091</t>
   </si>
   <si>
-    <t>018200984013</t>
-  </si>
-  <si>
     <t>080660954011</t>
   </si>
   <si>
     <t>033544950586</t>
   </si>
   <si>
-    <t>033544950548</t>
-  </si>
-  <si>
     <t>018200984020</t>
   </si>
   <si>
-    <t>072311130127</t>
-  </si>
-  <si>
     <t>072311230186</t>
   </si>
   <si>
     <t>072311930123</t>
   </si>
   <si>
-    <t>072311424219</t>
-  </si>
-  <si>
     <t>080660953199</t>
   </si>
   <si>
-    <t>089826300273</t>
-  </si>
-  <si>
     <t>080660956800</t>
   </si>
   <si>
     <t>080660956190</t>
   </si>
   <si>
-    <t>080660956084</t>
-  </si>
-  <si>
     <t>080660954080</t>
   </si>
   <si>
@@ -246,18 +144,12 @@
     <t>Corona Premier 12oz Can 12pk</t>
   </si>
   <si>
-    <t>Estrella Jalisco 12oz Btl 6pk</t>
-  </si>
-  <si>
     <t>Coronitas 7oz Btl 6pk</t>
   </si>
   <si>
     <t>Corona Premier 12oz Btl 12pk</t>
   </si>
   <si>
-    <t>Corona Familiar 12oz Btl 12pk</t>
-  </si>
-  <si>
     <t>Estrella Jalisco 12oz Btl 12pk</t>
   </si>
   <si>
@@ -270,21 +162,12 @@
     <t>Dos Equis 12oz Btl 12pk</t>
   </si>
   <si>
-    <t>Dos Equis 12oz Can 12pk</t>
-  </si>
-  <si>
-    <t>Dos Equis 7oz Btl 24pk</t>
-  </si>
-  <si>
     <t>Corona Extra 12oz Btl 18pk</t>
   </si>
   <si>
     <t>Corona Extra 12oz Btl 12pk</t>
   </si>
   <si>
-    <t>Corona Extra 12oz Btl 24pk</t>
-  </si>
-  <si>
     <t>Coronitas 7oz Btl 24pk</t>
   </si>
   <si>
@@ -294,30 +177,18 @@
     <t>859599003110</t>
   </si>
   <si>
-    <t>754527008857</t>
-  </si>
-  <si>
     <t>754527011727</t>
   </si>
   <si>
-    <t>850014109783</t>
-  </si>
-  <si>
     <t>866160000102</t>
   </si>
   <si>
-    <t>636251743368</t>
-  </si>
-  <si>
     <t>763176120070</t>
   </si>
   <si>
     <t>602755009514</t>
   </si>
   <si>
-    <t>854839005008</t>
-  </si>
-  <si>
     <t>815351001251</t>
   </si>
   <si>
@@ -339,9 +210,6 @@
     <t>602755010794</t>
   </si>
   <si>
-    <t>083820104011</t>
-  </si>
-  <si>
     <t>815351054257</t>
   </si>
   <si>
@@ -357,9 +225,6 @@
     <t>796030824968</t>
   </si>
   <si>
-    <t>083783275247</t>
-  </si>
-  <si>
     <t>083783531114</t>
   </si>
   <si>
@@ -369,9 +234,6 @@
     <t>071990095116</t>
   </si>
   <si>
-    <t>072890006721</t>
-  </si>
-  <si>
     <t>723830212121</t>
   </si>
   <si>
@@ -390,36 +252,15 @@
     <t>786150000021</t>
   </si>
   <si>
-    <t>The Shop Church Music 16oz 4pk</t>
-  </si>
-  <si>
-    <t>College St Big Blue Van Can 6pk</t>
-  </si>
-  <si>
-    <t>VooDoo Ranger Juicy Haze Can 6pk</t>
-  </si>
-  <si>
-    <t>VooDoo Ranger Juice Force Can 6pk</t>
-  </si>
-  <si>
-    <t>San Tan Juicy Jack Can 6pk</t>
-  </si>
-  <si>
     <t>Papago Orange Blosson 12oz Can 6pk</t>
   </si>
   <si>
-    <t>Stone IPA 12oz Can 6pk</t>
-  </si>
-  <si>
     <t>Firestone Mind Haze 12oz Can 6pk</t>
   </si>
   <si>
     <t>Deschutess Fresh Squeezed 12oz Can 6pk</t>
   </si>
   <si>
-    <t>Barrio Blode 12oz Can 6pk</t>
-  </si>
-  <si>
     <t>Four Peaks Kiltlifter 12oz Can 15pk</t>
   </si>
   <si>
@@ -429,9 +270,6 @@
     <t>Four Peaks Wow Wheat 12oz Can 15pk</t>
   </si>
   <si>
-    <t>Four Peaks Wow Wheat 12oz Btl 6pk</t>
-  </si>
-  <si>
     <t>Four Peaks Hazy 12oz Btl 6pk</t>
   </si>
   <si>
@@ -441,24 +279,12 @@
     <t>Firestone 805 Cervesa 12oz Can 12pk</t>
   </si>
   <si>
-    <t>Guinness 11.2oz Btl 6pk</t>
-  </si>
-  <si>
-    <t>Kona Big Wave 12oz Btl 6pk</t>
-  </si>
-  <si>
-    <t>Tower Station 12pk Can 12oz</t>
-  </si>
-  <si>
     <t>The Shop Church Music 12oz Can 12pk</t>
   </si>
   <si>
     <t>Kona Big Wave 12oz Can 12pk</t>
   </si>
   <si>
-    <t>Sierra Nevada Pale Ale 12oz Can 12pk</t>
-  </si>
-  <si>
     <t>Sierra Nevada Hazy 12oz Can 12pk</t>
   </si>
   <si>
@@ -468,9 +294,6 @@
     <t>Blue Moon 12oz Btl 6pk</t>
   </si>
   <si>
-    <t>Heineken Silver 12oz Can 12pk</t>
-  </si>
-  <si>
     <t>Lagunitas IPA 12oz Can 12pk</t>
   </si>
   <si>
@@ -498,9 +321,6 @@
     <t>018200958717</t>
   </si>
   <si>
-    <t>018200291449</t>
-  </si>
-  <si>
     <t>018200958700</t>
   </si>
   <si>
@@ -513,9 +333,6 @@
     <t>089826130290</t>
   </si>
   <si>
-    <t>089826130436</t>
-  </si>
-  <si>
     <t>033544000816</t>
   </si>
   <si>
@@ -558,18 +375,6 @@
     <t>033544950623</t>
   </si>
   <si>
-    <t>033544001745</t>
-  </si>
-  <si>
-    <t>085000005422</t>
-  </si>
-  <si>
-    <t>082734001195</t>
-  </si>
-  <si>
-    <t>085000005941</t>
-  </si>
-  <si>
     <t>085000005361</t>
   </si>
   <si>
@@ -591,54 +396,6 @@
     <t>085000021812</t>
   </si>
   <si>
-    <t>085000005330</t>
-  </si>
-  <si>
-    <t>082734002192</t>
-  </si>
-  <si>
-    <t>085000045947</t>
-  </si>
-  <si>
-    <t>085000045367</t>
-  </si>
-  <si>
-    <t>085000045466</t>
-  </si>
-  <si>
-    <t>012354007437</t>
-  </si>
-  <si>
-    <t>085000016688</t>
-  </si>
-  <si>
-    <t>085000020456</t>
-  </si>
-  <si>
-    <t>694060001185</t>
-  </si>
-  <si>
-    <t>694060001277</t>
-  </si>
-  <si>
-    <t>694060001154</t>
-  </si>
-  <si>
-    <t>694060001246</t>
-  </si>
-  <si>
-    <t>694060001215</t>
-  </si>
-  <si>
-    <t>Estrella Jalisco 24oz Can</t>
-  </si>
-  <si>
-    <t>Estrella Jalisco Mango 24oz Can</t>
-  </si>
-  <si>
-    <t>Bud Lt Chelada Mango 24oz Can</t>
-  </si>
-  <si>
     <t>Bud Lt Chelada Tajin 24oz Can</t>
   </si>
   <si>
@@ -648,9 +405,6 @@
     <t>Sol Chelada 24oz Can</t>
   </si>
   <si>
-    <t>Sol Mango y Chamoy 24oz Can</t>
-  </si>
-  <si>
     <t>Modelo Chelada Sandia Picante 24oz Can</t>
   </si>
   <si>
@@ -690,22 +444,7 @@
     <t>Modelo Negra 24oz Can</t>
   </si>
   <si>
-    <t>Vicky Chamoy 24oz Can</t>
-  </si>
-  <si>
-    <t>Gallo Chardonnay 187ml</t>
-  </si>
-  <si>
-    <t>Frontera Cabernet Merlot 187ml</t>
-  </si>
-  <si>
-    <t>Barefoot Pink Moscato 187ml</t>
-  </si>
-  <si>
-    <t>Barefoot Chardonnay 187ml</t>
-  </si>
-  <si>
-    <t>Barefoot Pinot Grigio 187ml</t>
+    <t>Liberty Creek Cabeernet Sauvignon 500ml</t>
   </si>
   <si>
     <t>Liberty Creek Pink Moscato 500ml</t>
@@ -720,54 +459,6 @@
     <t>Liberty Creek Chardonnay 500ml</t>
   </si>
   <si>
-    <t>Gallo Chardonnay 187ml 4pk</t>
-  </si>
-  <si>
-    <t>Frontera Cabernet Merlot 187ml 4pk</t>
-  </si>
-  <si>
-    <t>Barefoot Pink Moscato 187ml 4pk</t>
-  </si>
-  <si>
-    <t>Barefoot Chardonnay 187ml 4pk</t>
-  </si>
-  <si>
-    <t>Barefoot Pinot Grigio 187ml 4pk</t>
-  </si>
-  <si>
-    <t>Martha Chardonnay 750ml</t>
-  </si>
-  <si>
-    <t>Barefoot Moscato 750ml</t>
-  </si>
-  <si>
-    <t>Barefoot Pink Moscato 750ml</t>
-  </si>
-  <si>
-    <t>Navigator Chardonnay 750ml</t>
-  </si>
-  <si>
-    <t>Navigator Cabernet Sauvignon 750ml</t>
-  </si>
-  <si>
-    <t>Navigator Sauvignon Blanc 750ml</t>
-  </si>
-  <si>
-    <t>Navigator Red Blend 750ml</t>
-  </si>
-  <si>
-    <t>Navigator Pinot Grigio 750ml</t>
-  </si>
-  <si>
-    <t>082000776956</t>
-  </si>
-  <si>
-    <t>082000799023</t>
-  </si>
-  <si>
-    <t>082000795216</t>
-  </si>
-  <si>
     <t>684746400067</t>
   </si>
   <si>
@@ -789,18 +480,12 @@
     <t>635985258759</t>
   </si>
   <si>
-    <t>072890006691</t>
-  </si>
-  <si>
     <t>072890001191</t>
   </si>
   <si>
     <t>018200287596</t>
   </si>
   <si>
-    <t>071990170493</t>
-  </si>
-  <si>
     <t>817904006898</t>
   </si>
   <si>
@@ -822,45 +507,21 @@
     <t>072311321242</t>
   </si>
   <si>
-    <t>815351035317</t>
-  </si>
-  <si>
-    <t>815351032217</t>
-  </si>
-  <si>
-    <t>083783375558</t>
-  </si>
-  <si>
     <t>083783375497</t>
   </si>
   <si>
-    <t>857213003713</t>
-  </si>
-  <si>
     <t>602755012606</t>
   </si>
   <si>
     <t>602755006827</t>
   </si>
   <si>
-    <t>636251744662</t>
-  </si>
-  <si>
-    <t>859612001741</t>
-  </si>
-  <si>
     <t>723830051928</t>
   </si>
   <si>
     <t>723830011922</t>
   </si>
   <si>
-    <t>602755010398</t>
-  </si>
-  <si>
-    <t>083783381054</t>
-  </si>
-  <si>
     <t>754527010218</t>
   </si>
   <si>
@@ -885,15 +546,9 @@
     <t>034100002176</t>
   </si>
   <si>
-    <t>071439757001</t>
-  </si>
-  <si>
     <t>034100000059</t>
   </si>
   <si>
-    <t>034100623463</t>
-  </si>
-  <si>
     <t>018200862519</t>
   </si>
   <si>
@@ -915,15 +570,6 @@
     <t>034100012564</t>
   </si>
   <si>
-    <t>Smirnoff Smash Screwdriver 16oz</t>
-  </si>
-  <si>
-    <t>Smirnoff Smash Pink Lemonade 16oz</t>
-  </si>
-  <si>
-    <t>Smirnoff Smash Red White &amp; Blue 16oz</t>
-  </si>
-  <si>
     <t>Clubtails Bahama Mama 16oz</t>
   </si>
   <si>
@@ -945,18 +591,12 @@
     <t>Mike's Harder Lemonade 16oz</t>
   </si>
   <si>
-    <t>Heineken Silver 24oz</t>
-  </si>
-  <si>
     <t>Heineken 24oz</t>
   </si>
   <si>
     <t>Stella Artois 25oz</t>
   </si>
   <si>
-    <t>Blue Moon 24oz</t>
-  </si>
-  <si>
     <t>Elysian Space Dust 19oz</t>
   </si>
   <si>
@@ -978,54 +618,27 @@
     <t>Dos Equis 24oz</t>
   </si>
   <si>
-    <t>Four Peaks Hazy 19.2oz</t>
-  </si>
-  <si>
-    <t>Four Peaks Xerocole Desert 19.2oz</t>
-  </si>
-  <si>
-    <t>Sierra Nevada Big Little Thing 19.2oz</t>
-  </si>
-  <si>
     <t>Sierra Nevada Hazy Little Thing 19.2oz</t>
   </si>
   <si>
-    <t>Mother Road Tower Station 19.2oz</t>
-  </si>
-  <si>
     <t>Firestone 805 Cervesa 24oz</t>
   </si>
   <si>
     <t>Firestone 805 24oz</t>
   </si>
   <si>
-    <t>Stone Delicious 19.2oz</t>
-  </si>
-  <si>
-    <t>21st Amendment Blood Orange 19.2oz</t>
-  </si>
-  <si>
     <t>Lagunitas Maximus 19.2oz</t>
   </si>
   <si>
     <t>Lagunitas IPA 19.2oz</t>
   </si>
   <si>
-    <t>Firestone Mind Haze 19.2oz</t>
-  </si>
-  <si>
-    <t>Sierra Nevada Pale Ale 19.2oz</t>
-  </si>
-  <si>
     <t>VooDoo Ranger Imperial 19.2oz</t>
   </si>
   <si>
     <t>VooDoo Ranger Juice Force 19.2oz</t>
   </si>
   <si>
-    <t>Steel Alloy Blue Raspberry 24oz</t>
-  </si>
-  <si>
     <t>Steel Alloy Blackberry 24oz</t>
   </si>
   <si>
@@ -1041,15 +654,9 @@
     <t>Mickey's 24oz</t>
   </si>
   <si>
-    <t>Rolling Rock 24oz</t>
-  </si>
-  <si>
     <t>Miller High Life 24oz</t>
   </si>
   <si>
-    <t>Miller Icehouse 24oz</t>
-  </si>
-  <si>
     <t>Busch Light 24oz</t>
   </si>
   <si>
@@ -1095,9 +702,6 @@
     <t>018200284809</t>
   </si>
   <si>
-    <t>796030259968</t>
-  </si>
-  <si>
     <t>018200287404</t>
   </si>
   <si>
@@ -1131,33 +735,18 @@
     <t>018200200786</t>
   </si>
   <si>
-    <t>018200284434</t>
-  </si>
-  <si>
     <t>018200200779</t>
   </si>
   <si>
     <t>Four Peaks Bad Bird Juice 19.2oz</t>
   </si>
   <si>
-    <t>Bud Light Seltzer Black Cherry 25oz</t>
-  </si>
-  <si>
-    <t>Bud Light Platinum Seltzer Wild Berry 25oz</t>
-  </si>
-  <si>
-    <t>Bud Light Lime 25oz</t>
-  </si>
-  <si>
     <t>Bud Light Platinum 25oz</t>
   </si>
   <si>
     <t>Michelob Ultra Lime 25oz</t>
   </si>
   <si>
-    <t>Kona Big Wave 25oz</t>
-  </si>
-  <si>
     <t>Michelob Ultra Gold 25oz</t>
   </si>
   <si>
@@ -1191,9 +780,6 @@
     <t>Natty Daddy 12oz Can 15pk</t>
   </si>
   <si>
-    <t>Natural Ice 12oz Can 15pk</t>
-  </si>
-  <si>
     <t>Natural Light 12oz Can 15pk</t>
   </si>
   <si>
@@ -1203,9 +789,6 @@
     <t>087692005407</t>
   </si>
   <si>
-    <t>810078780984</t>
-  </si>
-  <si>
     <t>810078780199</t>
   </si>
   <si>
@@ -1224,18 +807,9 @@
     <t>087692752134</t>
   </si>
   <si>
-    <t>018200264092</t>
-  </si>
-  <si>
-    <t>018200263941</t>
-  </si>
-  <si>
     <t>849806002661</t>
   </si>
   <si>
-    <t>849806001176</t>
-  </si>
-  <si>
     <t>849806004733</t>
   </si>
   <si>
@@ -1260,9 +834,6 @@
     <t>087692011712</t>
   </si>
   <si>
-    <t>018200288692</t>
-  </si>
-  <si>
     <t>635985802181</t>
   </si>
   <si>
@@ -1278,9 +849,6 @@
     <t>635985802020</t>
   </si>
   <si>
-    <t>018200203909</t>
-  </si>
-  <si>
     <t>635985800262</t>
   </si>
   <si>
@@ -1293,9 +861,6 @@
     <t>087692009924</t>
   </si>
   <si>
-    <t>087692012283</t>
-  </si>
-  <si>
     <t>087692006862</t>
   </si>
   <si>
@@ -1311,9 +876,6 @@
     <t>087692831341</t>
   </si>
   <si>
-    <t>034100087166</t>
-  </si>
-  <si>
     <t>087692821021</t>
   </si>
   <si>
@@ -1329,12 +891,6 @@
     <t>Redd's Wicked Apple 24oz</t>
   </si>
   <si>
-    <t>Angry Orchard 24oz</t>
-  </si>
-  <si>
-    <t>Simply Spiked Peach 24oz</t>
-  </si>
-  <si>
     <t>Simply Spiked Lemonade 24oz</t>
   </si>
   <si>
@@ -1353,30 +909,18 @@
     <t>Twisted Tea Half &amp; Half 24oz</t>
   </si>
   <si>
-    <t>Cantaritos Pineapple 25oz</t>
-  </si>
-  <si>
     <t>Four Loko Sour Grape 23.5oz</t>
   </si>
   <si>
-    <t>Four Loko Gold 23.5oz</t>
-  </si>
-  <si>
     <t>Four Loko USA 23.5oz</t>
   </si>
   <si>
     <t>Mike's Harder Black Cherry 23.5oz</t>
   </si>
   <si>
-    <t>Mike's Harder Cranberry 23.5oz</t>
-  </si>
-  <si>
     <t>Mike's Harder Lemonade 23.5oz</t>
   </si>
   <si>
-    <t>Mike's Harder Strawberry Pineapple 23.5oz</t>
-  </si>
-  <si>
     <t>Truly Wild Berry 24oz</t>
   </si>
   <si>
@@ -1386,9 +930,6 @@
     <t>Truly Strawberry Lemonade 24oz</t>
   </si>
   <si>
-    <t>Michelob Ultra Cucumber Lime 25oz</t>
-  </si>
-  <si>
     <t>White Claw Strawberry 19.2oz</t>
   </si>
   <si>
@@ -1404,9 +945,6 @@
     <t>White Claw Black Cherry 19.2oz</t>
   </si>
   <si>
-    <t>Cantaritos Variety 12oz Btl 12pk</t>
-  </si>
-  <si>
     <t>White Claw Variety #3 12oz Can 12pk</t>
   </si>
   <si>
@@ -1419,9 +957,6 @@
     <t>Truly Lemonade Variety 12oz Can 12pk</t>
   </si>
   <si>
-    <t>Truly Punch Variety 12oz Can 12pk</t>
-  </si>
-  <si>
     <t>Truly Berry Variety 12oz Can 12pk</t>
   </si>
   <si>
@@ -1437,9 +972,6 @@
     <t>Twisted Tea 12oz Can 12pk</t>
   </si>
   <si>
-    <t>Redd's Apple 12oz Btl 6pk</t>
-  </si>
-  <si>
     <t>Angry Orchard 12oz Btl 6pk</t>
   </si>
   <si>
@@ -1488,12 +1020,6 @@
     <t>071990300784</t>
   </si>
   <si>
-    <t>071990095284</t>
-  </si>
-  <si>
-    <t>071990300302</t>
-  </si>
-  <si>
     <t>Coors 12oz Can 12pk</t>
   </si>
   <si>
@@ -1530,12 +1056,6 @@
     <t>Coors Light 12oz Btl 18pk</t>
   </si>
   <si>
-    <t>Coors Light 16oz Can 12pk</t>
-  </si>
-  <si>
-    <t>Coors Light 12oz Can 30pk</t>
-  </si>
-  <si>
     <t>018200283659</t>
   </si>
   <si>
@@ -1566,21 +1086,12 @@
     <t>018200111686</t>
   </si>
   <si>
-    <t>018200113499</t>
-  </si>
-  <si>
-    <t>034100576530</t>
-  </si>
-  <si>
     <t>034100576363</t>
   </si>
   <si>
     <t>034100577070</t>
   </si>
   <si>
-    <t>034100572563</t>
-  </si>
-  <si>
     <t>034100573409</t>
   </si>
   <si>
@@ -1611,27 +1122,15 @@
     <t>Budweiser 12oz Btl 18pk</t>
   </si>
   <si>
-    <t>Miler Lite 12oz Can 6pk</t>
-  </si>
-  <si>
     <t>Budweiser 12oz Can 24pk</t>
   </si>
   <si>
-    <t>Budweiser 12oz Btl 24pk</t>
-  </si>
-  <si>
-    <t>Miler Lite 16oz Can 12pk</t>
-  </si>
-  <si>
     <t>Miler Lite 12oz Can 12pk</t>
   </si>
   <si>
     <t>Miler Lite Aluminum 16oz 15pk</t>
   </si>
   <si>
-    <t>Miler Lite 12oz Btl 18pk</t>
-  </si>
-  <si>
     <t>Miler Lite 12oz Can 18pk</t>
   </si>
   <si>
@@ -1662,12 +1161,6 @@
     <t>018200533495</t>
   </si>
   <si>
-    <t>018200530302</t>
-  </si>
-  <si>
-    <t>Bud Light 12oz Can 6pk</t>
-  </si>
-  <si>
     <t>Bud Light 12oz Btl 6pk</t>
   </si>
   <si>
@@ -1689,15 +1182,9 @@
     <t>Bud Light 12oz Btl 24pk</t>
   </si>
   <si>
-    <t>Bud Light 12oz Can 30pk</t>
-  </si>
-  <si>
     <t>018200962240</t>
   </si>
   <si>
-    <t>018200287831</t>
-  </si>
-  <si>
     <t>018200967702</t>
   </si>
   <si>
@@ -1722,15 +1209,9 @@
     <t>018200140051</t>
   </si>
   <si>
-    <t>018200289040</t>
-  </si>
-  <si>
     <t>018200967696</t>
   </si>
   <si>
-    <t>018200284373</t>
-  </si>
-  <si>
     <t>018200966248</t>
   </si>
   <si>
@@ -1743,12 +1224,6 @@
     <t>018200967153</t>
   </si>
   <si>
-    <t>Michelob Ultra Cucumber 12oz Can 12pk</t>
-  </si>
-  <si>
-    <t>Michelob Ultra Variety 12oz Can 12pk</t>
-  </si>
-  <si>
     <t>Michelob Ultra 12oz Btl 6pk</t>
   </si>
   <si>
@@ -1767,21 +1242,12 @@
     <t>Michelob Ultra Gold 12oz Btl 12pk</t>
   </si>
   <si>
-    <t>Bud Light Lime 12oz Can 12pk</t>
-  </si>
-  <si>
     <t>Michelob Ultra 16oz Can 8pk</t>
   </si>
   <si>
-    <t>Michelob Ultra Amber 12pk Btl 12pk</t>
-  </si>
-  <si>
     <t>Michelob Ultra 12oz Btl 12pk</t>
   </si>
   <si>
-    <t>Michelob Ultra 7oz Btl 24pk</t>
-  </si>
-  <si>
     <t>Michelob Ultra 12oz Btl 18pk</t>
   </si>
   <si>
@@ -1800,29 +1266,606 @@
     <t>Pacifico 12oz Btl 12pk</t>
   </si>
   <si>
-    <t>Pure Life Gallon</t>
-  </si>
-  <si>
-    <t>Model Especial 12oz Btl 6pk</t>
-  </si>
-  <si>
-    <t>Four Peaks Bad Bird Juice 12oz can 15pk</t>
-  </si>
-  <si>
-    <t>Liberty Creek Cabernet Sauvignon 500ml</t>
-  </si>
-  <si>
-    <t>Cantaritos Mandarin 25oz</t>
+    <t>085000035818</t>
+  </si>
+  <si>
+    <t>VIBE Strawberry Limeade Tetra 500mL</t>
+  </si>
+  <si>
+    <t>085000035795</t>
+  </si>
+  <si>
+    <t>VIBE Raspberry Lemonade Tetra 500mL</t>
+  </si>
+  <si>
+    <t>085000035801</t>
+  </si>
+  <si>
+    <t>VIBE Fruit Punch Tetra 500mL</t>
+  </si>
+  <si>
+    <t>851133006731</t>
+  </si>
+  <si>
+    <t>Beatbox Green Apple 16.9oz</t>
+  </si>
+  <si>
+    <t>851133006755</t>
+  </si>
+  <si>
+    <t>Beatbox Hard Tea 16.9oz</t>
+  </si>
+  <si>
+    <t>850028324735</t>
+  </si>
+  <si>
+    <t>Big Sipz Pina Colada 200mL</t>
+  </si>
+  <si>
+    <t>860010737309</t>
+  </si>
+  <si>
+    <t>Big Sipz Purple Punch 200mL</t>
+  </si>
+  <si>
+    <t>850028324278</t>
+  </si>
+  <si>
+    <t>Big Sipz Strawberry Margarita 200mL</t>
+  </si>
+  <si>
+    <t>850028324711</t>
+  </si>
+  <si>
+    <t>Big Sipz Classic Margarita 200mL</t>
+  </si>
+  <si>
+    <t>860010737347</t>
+  </si>
+  <si>
+    <t>Big Sipz Hard Iced Tea 200mL</t>
+  </si>
+  <si>
+    <t>857641002890</t>
+  </si>
+  <si>
+    <t>Buzzballz Chocolate 187mL</t>
+  </si>
+  <si>
+    <t>857641002333</t>
+  </si>
+  <si>
+    <t>Buzzballz Lotta Colada 187mL</t>
+  </si>
+  <si>
+    <t>857641002149</t>
+  </si>
+  <si>
+    <t>Buzzballz Limearita 187mL</t>
+  </si>
+  <si>
+    <t>857641002654</t>
+  </si>
+  <si>
+    <t>Buzzballz Strawberry 187mL</t>
+  </si>
+  <si>
+    <t>Pure Life Gal</t>
+  </si>
+  <si>
+    <t>027541001235</t>
+  </si>
+  <si>
+    <t>Niagara .5 L 24pk</t>
+  </si>
+  <si>
+    <t>Arrowhead .5 L 24pk</t>
+  </si>
+  <si>
+    <t>Barefoot Chardonnay 187mL</t>
+  </si>
+  <si>
+    <t>Barefoot Pinot Grigio 187mL</t>
+  </si>
+  <si>
+    <t>088232003181</t>
+  </si>
+  <si>
+    <t>Vendange Pino Grigio Tetra 500mL</t>
+  </si>
+  <si>
+    <t>088232003167</t>
+  </si>
+  <si>
+    <t>Vendange Chardonnay Tetra 500mL</t>
+  </si>
+  <si>
+    <t>684746400210</t>
+  </si>
+  <si>
+    <t>Clubtails Sunny Margarita 16oz</t>
+  </si>
+  <si>
+    <t>635985802112</t>
+  </si>
+  <si>
+    <t>White Claw Surge Cranberry 19.2oz</t>
+  </si>
+  <si>
+    <t>034100013301</t>
+  </si>
+  <si>
+    <t>Happy Thursday Pineapple Starfruit 24oz</t>
+  </si>
+  <si>
+    <t>Mike's Harder Strawberry Pineapple 23.5ozs</t>
+  </si>
+  <si>
+    <t>033544002025</t>
+  </si>
+  <si>
+    <t>Modelo Spiked Aguas Frescas Pina 24oz</t>
+  </si>
+  <si>
+    <t>Bud Lt Platinum Seltzer Wild Berry 25oz</t>
+  </si>
+  <si>
+    <t>Bud Lt Seltzer Black Cherry 25oz</t>
+  </si>
+  <si>
+    <t>Angry Orchard Crisp Apple 24oz</t>
+  </si>
+  <si>
+    <t>082000806394</t>
+  </si>
+  <si>
+    <t>Smirnoff Ice Original 23.5oz</t>
+  </si>
+  <si>
+    <t>082000776925</t>
+  </si>
+  <si>
+    <t>Smirnoff Smashed Screwdriver 24oz</t>
+  </si>
+  <si>
+    <t>082000795223</t>
+  </si>
+  <si>
+    <t>Smirnoff Red White Berry 23.5oz</t>
+  </si>
+  <si>
+    <t>082000805946</t>
+  </si>
+  <si>
+    <t>Smirnoff Smashed Lemon Tea 24oz</t>
+  </si>
+  <si>
+    <t>810117130350</t>
+  </si>
+  <si>
+    <t>Monster Nasty Beast Tea 24oz</t>
+  </si>
+  <si>
+    <t>754527012281</t>
+  </si>
+  <si>
+    <t>New Belgium Hardcharged Peach 24oz</t>
+  </si>
+  <si>
+    <t>754527011659</t>
+  </si>
+  <si>
+    <t>New Belgium VR Hardcharged 24oz</t>
+  </si>
+  <si>
+    <t>815829011331</t>
+  </si>
+  <si>
+    <t>Cayman Jack Margarita 23.5oz</t>
+  </si>
+  <si>
+    <t>850024192263</t>
+  </si>
+  <si>
+    <t>NOCA Tea Pink Lemonade 24oz</t>
+  </si>
+  <si>
+    <t>810078781202</t>
+  </si>
+  <si>
+    <t>Simply Spiked Limeade 24oz</t>
+  </si>
+  <si>
+    <t>Mike's Harder Cranberry Lemon 23.5oz</t>
+  </si>
+  <si>
+    <t>635985258919</t>
+  </si>
+  <si>
+    <t>Mike's Harder Mango Punch 23.5oz</t>
+  </si>
+  <si>
+    <t>849806005457</t>
+  </si>
+  <si>
+    <t>Four Loko Jungle Juice 23.5oz</t>
+  </si>
+  <si>
+    <t>849806004948</t>
+  </si>
+  <si>
+    <t>Four Loko Warheads Cosmic Punch 23.5oz</t>
+  </si>
+  <si>
+    <t>833050006681</t>
+  </si>
+  <si>
+    <t>Joose Blue Lemonade 23.5oz</t>
+  </si>
+  <si>
+    <t>833050009958</t>
+  </si>
+  <si>
+    <t>Joose Jungle Joose 23.5oz</t>
+  </si>
+  <si>
+    <t>810117130282</t>
+  </si>
+  <si>
+    <t>Monster Beast White Haze 24oz</t>
+  </si>
+  <si>
+    <t>810117130305</t>
+  </si>
+  <si>
+    <t>Monster Beast Peach Perfect 24oz</t>
+  </si>
+  <si>
+    <t>810117130268</t>
+  </si>
+  <si>
+    <t>Monster Beast Mean Gren 24oz</t>
+  </si>
+  <si>
+    <t>636251746536</t>
+  </si>
+  <si>
+    <t>Stone Delicious Hazy 19.2oz</t>
+  </si>
+  <si>
+    <t>636251746086</t>
+  </si>
+  <si>
+    <t>Stone Double Delicious 19.2oz</t>
+  </si>
+  <si>
+    <t>071990001148</t>
+  </si>
+  <si>
+    <t>Blue Moon 19.2oz</t>
+  </si>
+  <si>
+    <t>851755006454</t>
+  </si>
+  <si>
+    <t>Huss Dry Hop West Coast IPA 19.2oz</t>
+  </si>
+  <si>
+    <t>754527012274</t>
+  </si>
+  <si>
+    <t>Voodoo Ranger Tropic Force 19.2oz</t>
+  </si>
+  <si>
+    <t>857213003904</t>
+  </si>
+  <si>
+    <t>Mother Road Turbo Tower 19.2oz</t>
+  </si>
+  <si>
+    <t>083783381115</t>
+  </si>
+  <si>
+    <t>Sierra Nevada Cosmic Little Thing 19.2oz</t>
+  </si>
+  <si>
+    <t>602755013047</t>
+  </si>
+  <si>
+    <t>Firestone Walker Cosmic Crusher 19.2oz</t>
+  </si>
+  <si>
+    <t>852036006552</t>
+  </si>
+  <si>
+    <t>Dragoon IPA 19.2oz</t>
+  </si>
+  <si>
+    <t>089826231201</t>
+  </si>
+  <si>
+    <t>Dos Equis Chelada Pineapple 24oz</t>
+  </si>
+  <si>
+    <t>089826230990</t>
+  </si>
+  <si>
+    <t>Dos Equis Michelada 24oz</t>
+  </si>
+  <si>
+    <t>033544002315</t>
+  </si>
+  <si>
+    <t>Modelo Fresca Picante 24oz</t>
+  </si>
+  <si>
+    <t>018200264344</t>
+  </si>
+  <si>
+    <t>Bud Lt Chelada Tajin Pina 24oz</t>
+  </si>
+  <si>
+    <t>Estrella Jalisco Golden Road Mango Michelada 25oz</t>
+  </si>
+  <si>
+    <t>Estrella Jalisco 24oz</t>
+  </si>
+  <si>
+    <t>Bud Lt Lime 25oz</t>
+  </si>
+  <si>
+    <t>Steel Alloy Blue Razz 24oz</t>
+  </si>
+  <si>
+    <t>022100112094</t>
+  </si>
+  <si>
+    <t>Pabst 24oz</t>
+  </si>
+  <si>
+    <t>034100576288</t>
+  </si>
+  <si>
+    <t>Miller Lite 24oz 3pk</t>
+  </si>
+  <si>
+    <t>071990301200</t>
+  </si>
+  <si>
+    <t>Coors Light 24oz 3pk</t>
+  </si>
+  <si>
+    <t>087692009832</t>
+  </si>
+  <si>
+    <t>Twisted Tea 24oz 3pk</t>
+  </si>
+  <si>
+    <t>018200140433</t>
+  </si>
+  <si>
+    <t>Michelob Ultra 25oz 3pk</t>
+  </si>
+  <si>
+    <t>018200531927</t>
+  </si>
+  <si>
+    <t>Bud Lt 25oz 3pk</t>
+  </si>
+  <si>
+    <t>018200111921</t>
+  </si>
+  <si>
+    <t>Budweiser 25oz 3pk</t>
+  </si>
+  <si>
+    <t>080660957746</t>
+  </si>
+  <si>
+    <t>Modelo 24oz 3pk</t>
+  </si>
+  <si>
+    <t>018200009648</t>
+  </si>
+  <si>
+    <t>Natural Ice 12oz Can 12pk</t>
+  </si>
+  <si>
+    <t>034100155056</t>
+  </si>
+  <si>
+    <t>Miller 64 12oz Btl 6pk</t>
+  </si>
+  <si>
+    <t>Miller Lite 12oz Can 6pk</t>
+  </si>
+  <si>
+    <t>Bud Lt 12oz Can 6pk</t>
+  </si>
+  <si>
+    <t>018200291814</t>
+  </si>
+  <si>
+    <t>Michelob Ultra 8oz Can 12pk</t>
+  </si>
+  <si>
+    <t>Kona Longboard 12oz Btl 6pk</t>
+  </si>
+  <si>
+    <t>754527006525</t>
+  </si>
+  <si>
+    <t>VooDoo Ranger Tropic Force 12oz Can 6pk</t>
+  </si>
+  <si>
+    <t>VooDoo Ranger Juice Force 12oz Can 6pk</t>
+  </si>
+  <si>
+    <t>754527004217</t>
+  </si>
+  <si>
+    <t>VooDoo Ranger Imperial 12oz Btl 6pk</t>
+  </si>
+  <si>
+    <t>Four Peaks Bad Bird Juice 12oz Can 15pk</t>
+  </si>
+  <si>
+    <t>636251746277</t>
+  </si>
+  <si>
+    <t>Stone Delicious Mixed 12oz Can 6pk</t>
+  </si>
+  <si>
+    <t>Four Peaks Joy Bus Wow 12oz Btl 6pk</t>
+  </si>
+  <si>
+    <t>087692011903</t>
+  </si>
+  <si>
+    <t>Sam Adams Just The Haze NA IPA 12oz Can 6pk</t>
+  </si>
+  <si>
+    <t>Mother Road Tower Station 12oz Can 12pk</t>
+  </si>
+  <si>
+    <t>The Shop Church Music 16oz Can 4pk</t>
+  </si>
+  <si>
+    <t>856229002512</t>
+  </si>
+  <si>
+    <t>San Tan Juicy Jack 12oz Can 6pk</t>
+  </si>
+  <si>
+    <t>856229002215</t>
+  </si>
+  <si>
+    <t>San Tan Moonjuice 12oz Can 6pk</t>
+  </si>
+  <si>
+    <t>College St Big Blue Van 12oz Can 6pk</t>
+  </si>
+  <si>
+    <t>851755006416</t>
+  </si>
+  <si>
+    <t>Huss Dry Hop West Coast IPA 12oz Can 6pk</t>
+  </si>
+  <si>
+    <t>Michelob Ultra Lime Cactus 12oz Can 12pk</t>
+  </si>
+  <si>
+    <t>Bud Lt Lime 12oz Can 12pk</t>
+  </si>
+  <si>
+    <t>083820123609</t>
+  </si>
+  <si>
+    <t>Guinness 14.9oz Can 4pk</t>
+  </si>
+  <si>
+    <t>072890006226</t>
+  </si>
+  <si>
+    <t>Heineken 0.0 12oz Btl 6pk</t>
+  </si>
+  <si>
+    <t>810117130329</t>
+  </si>
+  <si>
+    <t>Monster Nasty Beast Variety 12oz Can 12pk</t>
+  </si>
+  <si>
+    <t>754527012359</t>
+  </si>
+  <si>
+    <t>New Belgium Hardcharged Lemon 12oz Can 12pk</t>
+  </si>
+  <si>
+    <t>087692831044</t>
+  </si>
+  <si>
+    <t>Twisted Tea 12oz Btl 6pk</t>
+  </si>
+  <si>
+    <t>087692751342</t>
+  </si>
+  <si>
+    <t>Twisted Tea Half &amp; Half 12oz Can 12pk</t>
+  </si>
+  <si>
+    <t>033544002001</t>
+  </si>
+  <si>
+    <t>Modelo Aguas Frescas 12oz Can 12pk</t>
+  </si>
+  <si>
+    <t>851133006502</t>
+  </si>
+  <si>
+    <t>Beatbox Variety 6pk 500mL</t>
+  </si>
+  <si>
+    <t>815829010068</t>
+  </si>
+  <si>
+    <t>Cayman Jack Margarita 11.2oz Btl 6pk</t>
+  </si>
+  <si>
+    <t>815829011591</t>
+  </si>
+  <si>
+    <t>Cayman Jack Margarita Variety 12oz Can 12pk</t>
+  </si>
+  <si>
+    <t>087692018506</t>
+  </si>
+  <si>
+    <t>Truly Party Pack 12oz Can 12pk</t>
+  </si>
+  <si>
+    <t>033544001844</t>
+  </si>
+  <si>
+    <t>Corona NA 12oz Btl 6pk</t>
+  </si>
+  <si>
+    <t>072311330121</t>
+  </si>
+  <si>
+    <t>033544002094</t>
+  </si>
+  <si>
+    <t>Modelo Especial 12oz Can 6pk</t>
+  </si>
+  <si>
+    <t>033544950326</t>
+  </si>
+  <si>
+    <t>Pacifico 12oz Can 12pk</t>
+  </si>
+  <si>
+    <t>034100013370</t>
+  </si>
+  <si>
+    <t>Happy Thursday Strawberry 24oz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1848,9 +1891,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1869,9 +1914,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1909,7 +1954,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2015,7 +2060,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2157,7 +2202,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2165,10 +2210,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{803BA958-B48A-ED4D-9B38-59B159FBE8C1}">
-  <dimension ref="A1:C298"/>
+  <dimension ref="A1:C304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="C210" sqref="C210"/>
+    <sheetView tabSelected="1" topLeftCell="A279" workbookViewId="0">
+      <selection activeCell="A307" sqref="A307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2183,10 +2228,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>413</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>414</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2194,21 +2239,21 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>415</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>417</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2216,21 +2261,21 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2238,10 +2283,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>419</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2249,10 +2294,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>421</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2260,76 +2305,76 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>591</v>
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
+      <c r="B12" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
+      <c r="B13" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>592</v>
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -2337,10 +2382,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>433</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>434</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -2348,10 +2393,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>435</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>436</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -2359,32 +2404,32 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>437</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>438</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>439</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>440</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>441</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -2392,10 +2437,10 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>31</v>
+        <v>442</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>443</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -2403,32 +2448,32 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>444</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>445</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>446</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -2436,32 +2481,32 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>35</v>
+        <v>447</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>448</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>36</v>
+        <v>449</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>450</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -2469,10 +2514,10 @@
         <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -2480,10 +2525,10 @@
         <v>1</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -2491,21 +2536,21 @@
         <v>1</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -2513,10 +2558,10 @@
         <v>1</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="C31" t="s">
-        <v>73</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -2524,10 +2569,10 @@
         <v>1</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -2535,10 +2580,10 @@
         <v>1</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>58</v>
+        <v>451</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>452</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -2546,10 +2591,10 @@
         <v>1</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -2557,10 +2602,10 @@
         <v>1</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>60</v>
+        <v>147</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -2568,10 +2613,10 @@
         <v>1</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>61</v>
+        <v>148</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -2579,10 +2624,10 @@
         <v>1</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -2590,10 +2635,10 @@
         <v>2</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="C38" t="s">
-        <v>80</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -2601,21 +2646,21 @@
         <v>1</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>64</v>
+        <v>269</v>
       </c>
       <c r="C39" t="s">
-        <v>81</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>65</v>
+        <v>271</v>
       </c>
       <c r="C40" t="s">
-        <v>590</v>
+        <v>303</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -2623,21 +2668,21 @@
         <v>2</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>66</v>
+        <v>270</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
+        <v>302</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C42" t="s">
-        <v>83</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -2645,10 +2690,10 @@
         <v>2</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>68</v>
+        <v>273</v>
       </c>
       <c r="C43" t="s">
-        <v>84</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -2656,10 +2701,10 @@
         <v>1</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>69</v>
+        <v>453</v>
       </c>
       <c r="C44" t="s">
-        <v>85</v>
+        <v>454</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -2667,10 +2712,10 @@
         <v>1</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>70</v>
+        <v>606</v>
       </c>
       <c r="C45" t="s">
-        <v>86</v>
+        <v>607</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -2678,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>87</v>
+        <v>455</v>
       </c>
       <c r="C46" t="s">
-        <v>121</v>
+        <v>456</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -2689,10 +2734,10 @@
         <v>1</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>88</v>
+        <v>458</v>
       </c>
       <c r="C47" t="s">
-        <v>122</v>
+        <v>459</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -2700,10 +2745,10 @@
         <v>1</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>89</v>
+        <v>221</v>
       </c>
       <c r="C48" t="s">
-        <v>123</v>
+        <v>460</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -2711,10 +2756,10 @@
         <v>1</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>90</v>
+        <v>220</v>
       </c>
       <c r="C49" t="s">
-        <v>124</v>
+        <v>461</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -2722,10 +2767,10 @@
         <v>1</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>91</v>
+        <v>267</v>
       </c>
       <c r="C50" t="s">
-        <v>125</v>
+        <v>299</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -2733,21 +2778,21 @@
         <v>1</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>268</v>
       </c>
       <c r="C51" t="s">
-        <v>126</v>
+        <v>300</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>93</v>
+        <v>266</v>
       </c>
       <c r="C52" t="s">
-        <v>127</v>
+        <v>298</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -2755,10 +2800,10 @@
         <v>1</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>95</v>
+        <v>255</v>
       </c>
       <c r="C53" t="s">
-        <v>128</v>
+        <v>289</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -2766,43 +2811,43 @@
         <v>1</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>94</v>
+        <v>258</v>
       </c>
       <c r="C54" t="s">
-        <v>129</v>
+        <v>292</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>96</v>
+        <v>257</v>
       </c>
       <c r="C55" t="s">
-        <v>130</v>
+        <v>291</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>97</v>
+        <v>259</v>
       </c>
       <c r="C56" t="s">
-        <v>131</v>
+        <v>293</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>98</v>
+        <v>256</v>
       </c>
       <c r="C57" t="s">
-        <v>132</v>
+        <v>290</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -2810,10 +2855,10 @@
         <v>1</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>99</v>
+        <v>252</v>
       </c>
       <c r="C58" t="s">
-        <v>133</v>
+        <v>287</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -2821,10 +2866,10 @@
         <v>1</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>100</v>
+        <v>253</v>
       </c>
       <c r="C59" t="s">
-        <v>134</v>
+        <v>462</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -2832,10 +2877,10 @@
         <v>1</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>101</v>
+        <v>463</v>
       </c>
       <c r="C60" t="s">
-        <v>135</v>
+        <v>464</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -2843,10 +2888,10 @@
         <v>1</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>102</v>
+        <v>465</v>
       </c>
       <c r="C61" t="s">
-        <v>136</v>
+        <v>466</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -2854,10 +2899,10 @@
         <v>1</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>103</v>
+        <v>467</v>
       </c>
       <c r="C62" t="s">
-        <v>137</v>
+        <v>468</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -2865,10 +2910,10 @@
         <v>1</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>104</v>
+        <v>469</v>
       </c>
       <c r="C63" t="s">
-        <v>138</v>
+        <v>470</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -2876,10 +2921,10 @@
         <v>1</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>105</v>
+        <v>471</v>
       </c>
       <c r="C64" t="s">
-        <v>593</v>
+        <v>472</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -2887,10 +2932,10 @@
         <v>1</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>106</v>
+        <v>473</v>
       </c>
       <c r="C65" t="s">
-        <v>139</v>
+        <v>474</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -2898,10 +2943,10 @@
         <v>1</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>107</v>
+        <v>475</v>
       </c>
       <c r="C66" t="s">
-        <v>140</v>
+        <v>476</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -2909,10 +2954,10 @@
         <v>1</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>108</v>
+        <v>477</v>
       </c>
       <c r="C67" t="s">
-        <v>141</v>
+        <v>478</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -2920,10 +2965,10 @@
         <v>1</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>109</v>
+        <v>479</v>
       </c>
       <c r="C68" t="s">
-        <v>142</v>
+        <v>480</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -2931,10 +2976,10 @@
         <v>1</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>110</v>
+        <v>481</v>
       </c>
       <c r="C69" t="s">
-        <v>143</v>
+        <v>482</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -2942,10 +2987,10 @@
         <v>1</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>111</v>
+        <v>254</v>
       </c>
       <c r="C70" t="s">
-        <v>144</v>
+        <v>288</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -2953,10 +2998,10 @@
         <v>1</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>112</v>
+        <v>262</v>
       </c>
       <c r="C71" t="s">
-        <v>145</v>
+        <v>296</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -2964,10 +3009,10 @@
         <v>1</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>113</v>
+        <v>263</v>
       </c>
       <c r="C72" t="s">
-        <v>146</v>
+        <v>483</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -2975,10 +3020,10 @@
         <v>1</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>114</v>
+        <v>264</v>
       </c>
       <c r="C73" t="s">
-        <v>147</v>
+        <v>297</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -2986,10 +3031,10 @@
         <v>1</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>115</v>
+        <v>265</v>
       </c>
       <c r="C74" t="s">
-        <v>148</v>
+        <v>457</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -2997,10 +3042,10 @@
         <v>1</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>116</v>
+        <v>484</v>
       </c>
       <c r="C75" t="s">
-        <v>149</v>
+        <v>485</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -3008,10 +3053,10 @@
         <v>1</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>117</v>
+        <v>260</v>
       </c>
       <c r="C76" t="s">
-        <v>150</v>
+        <v>294</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -3019,10 +3064,10 @@
         <v>1</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>118</v>
+        <v>486</v>
       </c>
       <c r="C77" t="s">
-        <v>151</v>
+        <v>487</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -3030,10 +3075,10 @@
         <v>1</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>119</v>
+        <v>488</v>
       </c>
       <c r="C78" t="s">
-        <v>152</v>
+        <v>489</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -3041,10 +3086,10 @@
         <v>1</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>120</v>
+        <v>261</v>
       </c>
       <c r="C79" t="s">
-        <v>153</v>
+        <v>295</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -3052,10 +3097,10 @@
         <v>1</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>154</v>
+        <v>490</v>
       </c>
       <c r="C80" t="s">
-        <v>201</v>
+        <v>491</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -3063,21 +3108,21 @@
         <v>1</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>155</v>
+        <v>492</v>
       </c>
       <c r="C81" t="s">
-        <v>202</v>
+        <v>493</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>156</v>
+        <v>494</v>
       </c>
       <c r="C82" t="s">
-        <v>348</v>
+        <v>495</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -3085,10 +3130,10 @@
         <v>1</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>157</v>
+        <v>496</v>
       </c>
       <c r="C83" t="s">
-        <v>203</v>
+        <v>497</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -3096,10 +3141,10 @@
         <v>1</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>158</v>
+        <v>498</v>
       </c>
       <c r="C84" t="s">
-        <v>349</v>
+        <v>499</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -3107,32 +3152,32 @@
         <v>1</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C85" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C86" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>161</v>
+        <v>500</v>
       </c>
       <c r="C87" t="s">
-        <v>206</v>
+        <v>501</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -3140,10 +3185,10 @@
         <v>1</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>162</v>
+        <v>502</v>
       </c>
       <c r="C88" t="s">
-        <v>207</v>
+        <v>503</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -3151,10 +3196,10 @@
         <v>1</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>163</v>
+        <v>504</v>
       </c>
       <c r="C89" t="s">
-        <v>589</v>
+        <v>505</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -3162,10 +3207,10 @@
         <v>1</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>164</v>
+        <v>506</v>
       </c>
       <c r="C90" t="s">
-        <v>208</v>
+        <v>507</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -3173,10 +3218,10 @@
         <v>1</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>165</v>
+        <v>508</v>
       </c>
       <c r="C91" t="s">
-        <v>209</v>
+        <v>509</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -3187,7 +3232,7 @@
         <v>166</v>
       </c>
       <c r="C92" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -3195,21 +3240,21 @@
         <v>2</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C93" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>168</v>
+        <v>510</v>
       </c>
       <c r="C94" t="s">
-        <v>212</v>
+        <v>511</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -3217,21 +3262,21 @@
         <v>1</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>169</v>
+        <v>512</v>
       </c>
       <c r="C95" t="s">
-        <v>213</v>
+        <v>513</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C96" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -3239,10 +3284,10 @@
         <v>1</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C97" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -3250,10 +3295,10 @@
         <v>1</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>172</v>
+        <v>219</v>
       </c>
       <c r="C98" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -3261,10 +3306,10 @@
         <v>1</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="C99" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -3272,10 +3317,10 @@
         <v>1</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>174</v>
+        <v>514</v>
       </c>
       <c r="C100" t="s">
-        <v>218</v>
+        <v>515</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -3283,10 +3328,10 @@
         <v>1</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>175</v>
+        <v>516</v>
       </c>
       <c r="C101" t="s">
-        <v>219</v>
+        <v>517</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -3294,10 +3339,10 @@
         <v>1</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="C102" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -3305,10 +3350,10 @@
         <v>1</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="C103" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -3316,10 +3361,10 @@
         <v>1</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="C104" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -3327,10 +3372,10 @@
         <v>1</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="C105" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
@@ -3338,10 +3383,10 @@
         <v>1</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="C106" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -3349,10 +3394,10 @@
         <v>1</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="C107" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -3360,10 +3405,10 @@
         <v>1</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="C108" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -3371,10 +3416,10 @@
         <v>1</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>183</v>
+        <v>115</v>
       </c>
       <c r="C109" t="s">
-        <v>594</v>
+        <v>138</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -3382,32 +3427,32 @@
         <v>1</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>184</v>
+        <v>114</v>
       </c>
       <c r="C110" t="s">
-        <v>227</v>
+        <v>137</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>185</v>
+        <v>107</v>
       </c>
       <c r="C111" t="s">
-        <v>228</v>
+        <v>130</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>186</v>
+        <v>102</v>
       </c>
       <c r="C112" t="s">
-        <v>229</v>
+        <v>411</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -3415,32 +3460,32 @@
         <v>1</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>187</v>
+        <v>103</v>
       </c>
       <c r="C113" t="s">
-        <v>230</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>188</v>
+        <v>105</v>
       </c>
       <c r="C114" t="s">
-        <v>231</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>189</v>
+        <v>106</v>
       </c>
       <c r="C115" t="s">
-        <v>232</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -3448,21 +3493,21 @@
         <v>1</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>190</v>
+        <v>518</v>
       </c>
       <c r="C116" t="s">
-        <v>233</v>
+        <v>519</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>191</v>
+        <v>520</v>
       </c>
       <c r="C117" t="s">
-        <v>234</v>
+        <v>521</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -3470,21 +3515,21 @@
         <v>1</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="C118" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>193</v>
+        <v>113</v>
       </c>
       <c r="C119" t="s">
-        <v>236</v>
+        <v>136</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -3492,10 +3537,10 @@
         <v>1</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>194</v>
+        <v>112</v>
       </c>
       <c r="C120" t="s">
-        <v>237</v>
+        <v>135</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -3503,43 +3548,43 @@
         <v>1</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>195</v>
+        <v>522</v>
       </c>
       <c r="C121" t="s">
-        <v>238</v>
+        <v>523</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>196</v>
+        <v>104</v>
       </c>
       <c r="C122" t="s">
-        <v>239</v>
+        <v>127</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>197</v>
+        <v>159</v>
       </c>
       <c r="C123" t="s">
-        <v>240</v>
+        <v>196</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>198</v>
+        <v>101</v>
       </c>
       <c r="C124" t="s">
-        <v>241</v>
+        <v>125</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -3547,10 +3592,10 @@
         <v>1</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>199</v>
+        <v>98</v>
       </c>
       <c r="C125" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -3558,10 +3603,10 @@
         <v>1</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>200</v>
+        <v>524</v>
       </c>
       <c r="C126" t="s">
-        <v>243</v>
+        <v>525</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -3569,32 +3614,32 @@
         <v>1</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>244</v>
+        <v>99</v>
       </c>
       <c r="C127" t="s">
-        <v>296</v>
+        <v>123</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>245</v>
+        <v>100</v>
       </c>
       <c r="C128" t="s">
-        <v>297</v>
+        <v>124</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>246</v>
+        <v>97</v>
       </c>
       <c r="C129" t="s">
-        <v>298</v>
+        <v>217</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
@@ -3602,10 +3647,10 @@
         <v>1</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>247</v>
+        <v>96</v>
       </c>
       <c r="C130" t="s">
-        <v>299</v>
+        <v>526</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -3613,21 +3658,21 @@
         <v>1</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>248</v>
+        <v>95</v>
       </c>
       <c r="C131" t="s">
-        <v>300</v>
+        <v>527</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="C132" t="s">
-        <v>301</v>
+        <v>240</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -3635,10 +3680,10 @@
         <v>1</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="C133" t="s">
-        <v>302</v>
+        <v>239</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -3646,142 +3691,142 @@
         <v>1</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="C134" t="s">
-        <v>303</v>
+        <v>528</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="C135" t="s">
-        <v>304</v>
+        <v>238</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="C136" t="s">
-        <v>305</v>
+        <v>241</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="C137" t="s">
-        <v>306</v>
+        <v>242</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="C138" t="s">
-        <v>307</v>
+        <v>243</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="C139" t="s">
-        <v>308</v>
+        <v>244</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="C140" t="s">
-        <v>309</v>
+        <v>245</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="C141" t="s">
-        <v>310</v>
+        <v>246</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="C142" t="s">
-        <v>311</v>
+        <v>247</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="C143" t="s">
-        <v>312</v>
+        <v>248</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>261</v>
+        <v>170</v>
       </c>
       <c r="C144" t="s">
-        <v>313</v>
+        <v>206</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>262</v>
+        <v>167</v>
       </c>
       <c r="C145" t="s">
-        <v>314</v>
+        <v>529</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>263</v>
+        <v>169</v>
       </c>
       <c r="C146" t="s">
-        <v>315</v>
+        <v>205</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
@@ -3789,10 +3834,10 @@
         <v>1</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>264</v>
+        <v>168</v>
       </c>
       <c r="C147" t="s">
-        <v>316</v>
+        <v>204</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
@@ -3800,32 +3845,32 @@
         <v>1</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>265</v>
+        <v>173</v>
       </c>
       <c r="C148" t="s">
-        <v>317</v>
+        <v>209</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>266</v>
+        <v>171</v>
       </c>
       <c r="C149" t="s">
-        <v>318</v>
+        <v>207</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>267</v>
+        <v>172</v>
       </c>
       <c r="C150" t="s">
-        <v>319</v>
+        <v>208</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
@@ -3833,10 +3878,10 @@
         <v>1</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>268</v>
+        <v>530</v>
       </c>
       <c r="C151" t="s">
-        <v>320</v>
+        <v>531</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
@@ -3844,10 +3889,10 @@
         <v>1</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>269</v>
+        <v>175</v>
       </c>
       <c r="C152" t="s">
-        <v>321</v>
+        <v>211</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
@@ -3855,10 +3900,10 @@
         <v>1</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>270</v>
+        <v>174</v>
       </c>
       <c r="C153" t="s">
-        <v>322</v>
+        <v>210</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
@@ -3866,10 +3911,10 @@
         <v>1</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>271</v>
+        <v>177</v>
       </c>
       <c r="C154" t="s">
-        <v>323</v>
+        <v>213</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
@@ -3877,10 +3922,10 @@
         <v>1</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>272</v>
+        <v>176</v>
       </c>
       <c r="C155" t="s">
-        <v>324</v>
+        <v>212</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
@@ -3888,21 +3933,21 @@
         <v>1</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>273</v>
+        <v>532</v>
       </c>
       <c r="C156" t="s">
-        <v>325</v>
+        <v>533</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>274</v>
+        <v>534</v>
       </c>
       <c r="C157" t="s">
-        <v>326</v>
+        <v>535</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
@@ -3910,43 +3955,43 @@
         <v>1</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>275</v>
+        <v>536</v>
       </c>
       <c r="C158" t="s">
-        <v>327</v>
+        <v>537</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>276</v>
+        <v>538</v>
       </c>
       <c r="C159" t="s">
-        <v>328</v>
+        <v>539</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>277</v>
+        <v>540</v>
       </c>
       <c r="C160" t="s">
-        <v>329</v>
+        <v>541</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>278</v>
+        <v>542</v>
       </c>
       <c r="C161" t="s">
-        <v>330</v>
+        <v>543</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
@@ -3954,21 +3999,21 @@
         <v>2</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>279</v>
+        <v>544</v>
       </c>
       <c r="C162" t="s">
-        <v>331</v>
+        <v>545</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>280</v>
+        <v>178</v>
       </c>
       <c r="C163" t="s">
-        <v>332</v>
+        <v>214</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
@@ -3976,65 +4021,65 @@
         <v>1</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>281</v>
+        <v>234</v>
       </c>
       <c r="C164" t="s">
-        <v>333</v>
+        <v>249</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>282</v>
+        <v>344</v>
       </c>
       <c r="C165" t="s">
-        <v>334</v>
+        <v>358</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>283</v>
+        <v>179</v>
       </c>
       <c r="C166" t="s">
-        <v>335</v>
+        <v>215</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>284</v>
+        <v>546</v>
       </c>
       <c r="C167" t="s">
-        <v>336</v>
+        <v>547</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="C168" t="s">
-        <v>337</v>
+        <v>250</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>286</v>
+        <v>236</v>
       </c>
       <c r="C169" t="s">
-        <v>338</v>
+        <v>251</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
@@ -4042,32 +4087,32 @@
         <v>1</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>287</v>
+        <v>180</v>
       </c>
       <c r="C170" t="s">
-        <v>339</v>
+        <v>216</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="C171" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="C172" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
@@ -4075,10 +4120,10 @@
         <v>1</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="C173" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
@@ -4086,21 +4131,21 @@
         <v>1</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="C174" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="C175" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
@@ -4108,21 +4153,21 @@
         <v>2</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="C176" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="C177" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
@@ -4130,10 +4175,10 @@
         <v>1</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>295</v>
+        <v>324</v>
       </c>
       <c r="C178" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
@@ -4141,10 +4186,10 @@
         <v>1</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="C179" t="s">
-        <v>370</v>
+        <v>339</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
@@ -4152,10 +4197,10 @@
         <v>1</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="C180" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
@@ -4163,21 +4208,21 @@
         <v>1</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="C181" t="s">
-        <v>372</v>
+        <v>338</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="C182" t="s">
-        <v>373</v>
+        <v>341</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
@@ -4185,10 +4230,10 @@
         <v>1</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="C183" t="s">
-        <v>374</v>
+        <v>342</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
@@ -4196,76 +4241,76 @@
         <v>1</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>355</v>
+        <v>548</v>
       </c>
       <c r="C184" t="s">
-        <v>375</v>
+        <v>549</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C185" t="s">
-        <v>376</v>
+        <v>550</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="C186" t="s">
-        <v>377</v>
+        <v>551</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="C187" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C188" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="C189" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190">
-        <v>9</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="C190" t="s">
-        <v>381</v>
+        <v>1</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
@@ -4273,10 +4318,10 @@
         <v>2</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="C191" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
@@ -4284,43 +4329,43 @@
         <v>2</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="C192" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="C193" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="C194" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="C195" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
@@ -4328,32 +4373,32 @@
         <v>1</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="C196" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="C197" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C198" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
@@ -4361,21 +4406,21 @@
         <v>1</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>390</v>
+        <v>345</v>
       </c>
       <c r="C199" t="s">
-        <v>433</v>
+        <v>359</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C200" t="s">
-        <v>434</v>
+        <v>399</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
@@ -4383,10 +4428,10 @@
         <v>1</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>392</v>
+        <v>552</v>
       </c>
       <c r="C201" t="s">
-        <v>435</v>
+        <v>553</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
@@ -4397,7 +4442,7 @@
         <v>393</v>
       </c>
       <c r="C202" t="s">
-        <v>436</v>
+        <v>405</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
@@ -4405,10 +4450,10 @@
         <v>1</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>394</v>
+        <v>346</v>
       </c>
       <c r="C203" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
@@ -4416,10 +4461,10 @@
         <v>1</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>395</v>
+        <v>349</v>
       </c>
       <c r="C204" t="s">
-        <v>438</v>
+        <v>363</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
@@ -4427,10 +4472,10 @@
         <v>1</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="C205" t="s">
-        <v>439</v>
+        <v>400</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
@@ -4438,10 +4483,10 @@
         <v>1</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C206" t="s">
-        <v>440</v>
+        <v>404</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
@@ -4449,21 +4494,21 @@
         <v>1</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>398</v>
+        <v>347</v>
       </c>
       <c r="C207" t="s">
-        <v>441</v>
+        <v>361</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C208" t="s">
-        <v>442</v>
+        <v>409</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
@@ -4471,10 +4516,10 @@
         <v>1</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C209" t="s">
-        <v>595</v>
+        <v>410</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
@@ -4482,21 +4527,21 @@
         <v>1</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>401</v>
+        <v>352</v>
       </c>
       <c r="C210" t="s">
-        <v>443</v>
+        <v>365</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C211" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
@@ -4504,10 +4549,10 @@
         <v>1</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>403</v>
+        <v>348</v>
       </c>
       <c r="C212" t="s">
-        <v>445</v>
+        <v>362</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
@@ -4515,10 +4560,10 @@
         <v>1</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>404</v>
+        <v>350</v>
       </c>
       <c r="C213" t="s">
-        <v>446</v>
+        <v>364</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
@@ -4526,10 +4571,10 @@
         <v>1</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="C214" t="s">
-        <v>447</v>
+        <v>407</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
@@ -4537,10 +4582,10 @@
         <v>1</v>
       </c>
       <c r="B215" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C215" t="s">
         <v>406</v>
-      </c>
-      <c r="C215" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
@@ -4548,10 +4593,10 @@
         <v>1</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>407</v>
+        <v>66</v>
       </c>
       <c r="C216" t="s">
-        <v>449</v>
+        <v>86</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
@@ -4559,10 +4604,10 @@
         <v>1</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>408</v>
+        <v>69</v>
       </c>
       <c r="C217" t="s">
-        <v>450</v>
+        <v>89</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
@@ -4570,10 +4615,10 @@
         <v>1</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>409</v>
+        <v>65</v>
       </c>
       <c r="C218" t="s">
-        <v>451</v>
+        <v>85</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
@@ -4581,10 +4626,10 @@
         <v>1</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>410</v>
+        <v>62</v>
       </c>
       <c r="C219" t="s">
-        <v>452</v>
+        <v>554</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
@@ -4592,10 +4637,10 @@
         <v>1</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>411</v>
+        <v>68</v>
       </c>
       <c r="C220" t="s">
-        <v>453</v>
+        <v>88</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
@@ -4603,10 +4648,10 @@
         <v>1</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>412</v>
+        <v>555</v>
       </c>
       <c r="C221" t="s">
-        <v>454</v>
+        <v>556</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
@@ -4614,10 +4659,10 @@
         <v>1</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>413</v>
+        <v>50</v>
       </c>
       <c r="C222" t="s">
-        <v>455</v>
+        <v>557</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
@@ -4625,10 +4670,10 @@
         <v>1</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>414</v>
+        <v>70</v>
       </c>
       <c r="C223" t="s">
-        <v>456</v>
+        <v>90</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
@@ -4636,10 +4681,10 @@
         <v>1</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>415</v>
+        <v>558</v>
       </c>
       <c r="C224" t="s">
-        <v>457</v>
+        <v>559</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
@@ -4647,10 +4692,10 @@
         <v>1</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>416</v>
+        <v>67</v>
       </c>
       <c r="C225" t="s">
-        <v>458</v>
+        <v>87</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
@@ -4658,10 +4703,10 @@
         <v>1</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>417</v>
+        <v>58</v>
       </c>
       <c r="C226" t="s">
-        <v>459</v>
+        <v>81</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
@@ -4669,10 +4714,10 @@
         <v>1</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>418</v>
+        <v>61</v>
       </c>
       <c r="C227" t="s">
-        <v>460</v>
+        <v>560</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
@@ -4680,10 +4725,10 @@
         <v>1</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>419</v>
+        <v>55</v>
       </c>
       <c r="C228" t="s">
-        <v>461</v>
+        <v>79</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
@@ -4691,10 +4736,10 @@
         <v>1</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>420</v>
+        <v>54</v>
       </c>
       <c r="C229" t="s">
-        <v>462</v>
+        <v>78</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
@@ -4702,10 +4747,10 @@
         <v>1</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>421</v>
+        <v>56</v>
       </c>
       <c r="C230" t="s">
-        <v>463</v>
+        <v>80</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
@@ -4713,10 +4758,10 @@
         <v>1</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>422</v>
+        <v>60</v>
       </c>
       <c r="C231" t="s">
-        <v>464</v>
+        <v>83</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
@@ -4724,10 +4769,10 @@
         <v>1</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>423</v>
+        <v>59</v>
       </c>
       <c r="C232" t="s">
-        <v>465</v>
+        <v>82</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
@@ -4735,10 +4780,10 @@
         <v>1</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>424</v>
+        <v>53</v>
       </c>
       <c r="C233" t="s">
-        <v>466</v>
+        <v>76</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
@@ -4746,10 +4791,10 @@
         <v>1</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>425</v>
+        <v>561</v>
       </c>
       <c r="C234" t="s">
-        <v>467</v>
+        <v>562</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
@@ -4757,21 +4802,21 @@
         <v>1</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>426</v>
+        <v>57</v>
       </c>
       <c r="C235" t="s">
-        <v>468</v>
+        <v>563</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>427</v>
+        <v>564</v>
       </c>
       <c r="C236" t="s">
-        <v>469</v>
+        <v>565</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
@@ -4779,10 +4824,10 @@
         <v>1</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>428</v>
+        <v>64</v>
       </c>
       <c r="C237" t="s">
-        <v>470</v>
+        <v>84</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
@@ -4790,10 +4835,10 @@
         <v>1</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>429</v>
+        <v>52</v>
       </c>
       <c r="C238" t="s">
-        <v>471</v>
+        <v>77</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
@@ -4801,10 +4846,10 @@
         <v>1</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>430</v>
+        <v>51</v>
       </c>
       <c r="C239" t="s">
-        <v>472</v>
+        <v>75</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
@@ -4812,10 +4857,10 @@
         <v>1</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>431</v>
+        <v>63</v>
       </c>
       <c r="C240" t="s">
-        <v>473</v>
+        <v>566</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
@@ -4823,21 +4868,21 @@
         <v>1</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>432</v>
+        <v>48</v>
       </c>
       <c r="C241" t="s">
-        <v>474</v>
+        <v>567</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>475</v>
+        <v>568</v>
       </c>
       <c r="C242" t="s">
-        <v>489</v>
+        <v>569</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
@@ -4845,21 +4890,21 @@
         <v>1</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>476</v>
+        <v>570</v>
       </c>
       <c r="C243" t="s">
-        <v>490</v>
+        <v>571</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>477</v>
+        <v>49</v>
       </c>
       <c r="C244" t="s">
-        <v>491</v>
+        <v>572</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
@@ -4867,21 +4912,21 @@
         <v>1</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>478</v>
+        <v>573</v>
       </c>
       <c r="C245" t="s">
-        <v>492</v>
+        <v>574</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>479</v>
+        <v>389</v>
       </c>
       <c r="C246" t="s">
-        <v>493</v>
+        <v>402</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
@@ -4889,21 +4934,21 @@
         <v>1</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>480</v>
+        <v>390</v>
       </c>
       <c r="C247" t="s">
-        <v>494</v>
+        <v>403</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>481</v>
+        <v>385</v>
       </c>
       <c r="C248" t="s">
-        <v>495</v>
+        <v>575</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
@@ -4911,32 +4956,32 @@
         <v>1</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>482</v>
+        <v>392</v>
       </c>
       <c r="C249" t="s">
-        <v>496</v>
+        <v>576</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>483</v>
+        <v>283</v>
       </c>
       <c r="C250" t="s">
-        <v>497</v>
+        <v>315</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>484</v>
+        <v>284</v>
       </c>
       <c r="C251" t="s">
-        <v>498</v>
+        <v>316</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
@@ -4944,10 +4989,10 @@
         <v>1</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>485</v>
+        <v>577</v>
       </c>
       <c r="C252" t="s">
-        <v>499</v>
+        <v>578</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
@@ -4955,21 +5000,21 @@
         <v>1</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>486</v>
+        <v>74</v>
       </c>
       <c r="C253" t="s">
-        <v>500</v>
+        <v>94</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>487</v>
+        <v>579</v>
       </c>
       <c r="C254" t="s">
-        <v>501</v>
+        <v>580</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
@@ -4977,10 +5022,10 @@
         <v>1</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>488</v>
+        <v>285</v>
       </c>
       <c r="C255" t="s">
-        <v>502</v>
+        <v>317</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
@@ -4988,10 +5033,10 @@
         <v>1</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>503</v>
+        <v>73</v>
       </c>
       <c r="C256" t="s">
-        <v>520</v>
+        <v>93</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
@@ -4999,10 +5044,10 @@
         <v>1</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>504</v>
+        <v>72</v>
       </c>
       <c r="C257" t="s">
-        <v>521</v>
+        <v>92</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
@@ -5010,32 +5055,32 @@
         <v>1</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>505</v>
+        <v>71</v>
       </c>
       <c r="C258" t="s">
-        <v>522</v>
+        <v>91</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>506</v>
+        <v>286</v>
       </c>
       <c r="C259" t="s">
-        <v>523</v>
+        <v>318</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>507</v>
+        <v>581</v>
       </c>
       <c r="C260" t="s">
-        <v>524</v>
+        <v>582</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
@@ -5043,21 +5088,21 @@
         <v>1</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>508</v>
+        <v>583</v>
       </c>
       <c r="C261" t="s">
-        <v>525</v>
+        <v>584</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>509</v>
+        <v>585</v>
       </c>
       <c r="C262" t="s">
-        <v>526</v>
+        <v>586</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
@@ -5065,21 +5110,21 @@
         <v>1</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>510</v>
+        <v>281</v>
       </c>
       <c r="C263" t="s">
-        <v>527</v>
+        <v>313</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>511</v>
+        <v>587</v>
       </c>
       <c r="C264" t="s">
-        <v>528</v>
+        <v>588</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
@@ -5087,10 +5132,10 @@
         <v>2</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>512</v>
+        <v>282</v>
       </c>
       <c r="C265" t="s">
-        <v>529</v>
+        <v>314</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
@@ -5098,10 +5143,10 @@
         <v>1</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>513</v>
+        <v>589</v>
       </c>
       <c r="C266" t="s">
-        <v>530</v>
+        <v>590</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
@@ -5109,21 +5154,21 @@
         <v>1</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>514</v>
+        <v>280</v>
       </c>
       <c r="C267" t="s">
-        <v>531</v>
+        <v>312</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>515</v>
+        <v>591</v>
       </c>
       <c r="C268" t="s">
-        <v>532</v>
+        <v>592</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
@@ -5131,10 +5176,10 @@
         <v>1</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>516</v>
+        <v>593</v>
       </c>
       <c r="C269" t="s">
-        <v>533</v>
+        <v>594</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
@@ -5142,10 +5187,10 @@
         <v>1</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>517</v>
+        <v>274</v>
       </c>
       <c r="C270" t="s">
-        <v>534</v>
+        <v>306</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
@@ -5153,10 +5198,10 @@
         <v>1</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>518</v>
+        <v>275</v>
       </c>
       <c r="C271" t="s">
-        <v>535</v>
+        <v>307</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
@@ -5164,54 +5209,54 @@
         <v>1</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>519</v>
+        <v>276</v>
       </c>
       <c r="C272" t="s">
-        <v>536</v>
+        <v>308</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="C273" t="s">
-        <v>546</v>
+        <v>596</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>538</v>
+        <v>279</v>
       </c>
       <c r="C274" t="s">
-        <v>547</v>
+        <v>311</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>539</v>
+        <v>277</v>
       </c>
       <c r="C275" t="s">
-        <v>548</v>
+        <v>309</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>540</v>
+        <v>278</v>
       </c>
       <c r="C276" t="s">
-        <v>549</v>
+        <v>310</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
@@ -5219,10 +5264,10 @@
         <v>1</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>541</v>
+        <v>597</v>
       </c>
       <c r="C277" t="s">
-        <v>550</v>
+        <v>598</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
@@ -5230,10 +5275,10 @@
         <v>1</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>542</v>
+        <v>599</v>
       </c>
       <c r="C278" t="s">
-        <v>551</v>
+        <v>600</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
@@ -5241,21 +5286,21 @@
         <v>1</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>543</v>
+        <v>28</v>
       </c>
       <c r="C279" t="s">
-        <v>552</v>
+        <v>39</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280">
-        <v>1</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="C280" t="s">
-        <v>553</v>
+        <v>2</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
@@ -5263,65 +5308,65 @@
         <v>1</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>545</v>
+        <v>26</v>
       </c>
       <c r="C281" t="s">
-        <v>554</v>
+        <v>38</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>555</v>
+        <v>5</v>
       </c>
       <c r="C282" t="s">
-        <v>572</v>
+        <v>17</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>556</v>
+        <v>601</v>
       </c>
       <c r="C283" t="s">
-        <v>573</v>
+        <v>42</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>557</v>
+        <v>29</v>
       </c>
       <c r="C284" t="s">
-        <v>574</v>
+        <v>40</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>558</v>
+        <v>3</v>
       </c>
       <c r="C285" t="s">
-        <v>575</v>
+        <v>15</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>559</v>
+        <v>4</v>
       </c>
       <c r="C286" t="s">
-        <v>576</v>
+        <v>16</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
@@ -5329,10 +5374,10 @@
         <v>1</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>560</v>
+        <v>30</v>
       </c>
       <c r="C287" t="s">
-        <v>577</v>
+        <v>41</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
@@ -5340,10 +5385,10 @@
         <v>1</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>561</v>
+        <v>31</v>
       </c>
       <c r="C288" t="s">
-        <v>578</v>
+        <v>43</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
@@ -5351,10 +5396,10 @@
         <v>1</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>562</v>
+        <v>32</v>
       </c>
       <c r="C289" t="s">
-        <v>579</v>
+        <v>44</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
@@ -5362,65 +5407,65 @@
         <v>1</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>563</v>
+        <v>36</v>
       </c>
       <c r="C290" t="s">
-        <v>580</v>
+        <v>47</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>564</v>
+        <v>34</v>
       </c>
       <c r="C291" t="s">
-        <v>581</v>
+        <v>45</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>565</v>
+        <v>35</v>
       </c>
       <c r="C292" t="s">
-        <v>582</v>
+        <v>46</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>566</v>
+        <v>602</v>
       </c>
       <c r="C293" t="s">
-        <v>583</v>
+        <v>603</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>567</v>
+        <v>2</v>
       </c>
       <c r="C294" t="s">
-        <v>584</v>
+        <v>14</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>568</v>
+        <v>9</v>
       </c>
       <c r="C295" t="s">
-        <v>585</v>
+        <v>21</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
@@ -5428,10 +5473,10 @@
         <v>1</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>569</v>
+        <v>6</v>
       </c>
       <c r="C296" t="s">
-        <v>586</v>
+        <v>18</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
@@ -5439,10 +5484,10 @@
         <v>1</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>570</v>
+        <v>33</v>
       </c>
       <c r="C297" t="s">
-        <v>587</v>
+        <v>412</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
@@ -5450,10 +5495,76 @@
         <v>1</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>571</v>
+        <v>604</v>
       </c>
       <c r="C298" t="s">
-        <v>588</v>
+        <v>605</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>10</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>1</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C300" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>2</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C301" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>1</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>1</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C303" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>2</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C304" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
